--- a/صيدليات دكتور مصطفي طلعت_2026-01-17_18-26.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-17_18-26.xlsx
@@ -159,6 +159,12 @@
   </si>
   <si>
     <t>IVYROSPAN SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>6:2</t>
   </si>
   <si>
     <t>MECLIZIGO 25 MG 20 ORODISPERSIBLE FILMS</t>
@@ -1632,17 +1638,17 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1650,7 +1656,7 @@
         <v>30</v>
       </c>
       <c t="s" r="B33" s="7">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1658,13 +1664,13 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>128.25</v>
+        <v>90</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
@@ -1676,7 +1682,7 @@
         <v>31</v>
       </c>
       <c t="s" r="B34" s="7">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1684,13 +1690,13 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>66</v>
+        <v>128.25</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
@@ -1702,7 +1708,7 @@
         <v>32</v>
       </c>
       <c t="s" r="B35" s="7">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1710,13 +1716,13 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>390</v>
+        <v>66</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
@@ -1728,7 +1734,7 @@
         <v>33</v>
       </c>
       <c t="s" r="B36" s="7">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -1736,13 +1742,13 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>290</v>
+        <v>390</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
@@ -1754,7 +1760,7 @@
         <v>34</v>
       </c>
       <c t="s" r="B37" s="7">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1762,17 +1768,17 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>16</v>
+        <v>290</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -1780,7 +1786,7 @@
         <v>35</v>
       </c>
       <c t="s" r="B38" s="7">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -1788,17 +1794,17 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>22.079999999999998</v>
+        <v>16</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1">
@@ -1806,7 +1812,7 @@
         <v>36</v>
       </c>
       <c t="s" r="B39" s="7">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -1814,17 +1820,17 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>102</v>
+        <v>22.079999999999998</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1">
@@ -1832,7 +1838,7 @@
         <v>37</v>
       </c>
       <c t="s" r="B40" s="7">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -1840,13 +1846,13 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
@@ -1858,7 +1864,7 @@
         <v>38</v>
       </c>
       <c t="s" r="B41" s="7">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -1866,17 +1872,17 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -1892,17 +1898,17 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -1910,7 +1916,7 @@
         <v>40</v>
       </c>
       <c t="s" r="B43" s="7">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -1918,17 +1924,17 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>21</v>
+        <v>130</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1">
@@ -1944,17 +1950,17 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>125</v>
+        <v>21</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" ht="25.5" customHeight="1">
@@ -1962,7 +1968,7 @@
         <v>42</v>
       </c>
       <c t="s" r="B45" s="7">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -1970,17 +1976,17 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>23</v>
+        <v>125</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1">
@@ -1988,7 +1994,7 @@
         <v>43</v>
       </c>
       <c t="s" r="B46" s="7">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -2014,7 +2020,7 @@
         <v>44</v>
       </c>
       <c t="s" r="B47" s="7">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -2022,17 +2028,17 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1">
@@ -2048,17 +2054,17 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1">
@@ -2066,7 +2072,7 @@
         <v>46</v>
       </c>
       <c t="s" r="B49" s="7">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -2080,11 +2086,11 @@
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2092,7 +2098,7 @@
         <v>47</v>
       </c>
       <c t="s" r="B50" s="7">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -2100,13 +2106,13 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
@@ -2126,17 +2132,17 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2144,7 +2150,7 @@
         <v>49</v>
       </c>
       <c t="s" r="B52" s="7">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -2152,17 +2158,17 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>2.5</v>
+        <v>66</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="25.5" customHeight="1">
@@ -2178,13 +2184,13 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>48</v>
+        <v>2.5</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
@@ -2196,7 +2202,7 @@
         <v>51</v>
       </c>
       <c t="s" r="B54" s="7">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -2204,13 +2210,13 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
@@ -2222,7 +2228,7 @@
         <v>52</v>
       </c>
       <c t="s" r="B55" s="7">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -2236,7 +2242,7 @@
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>285</v>
+        <v>95</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
@@ -2248,7 +2254,7 @@
         <v>53</v>
       </c>
       <c t="s" r="B56" s="7">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
@@ -2256,13 +2262,13 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>20</v>
+        <v>285</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
@@ -2274,7 +2280,7 @@
         <v>54</v>
       </c>
       <c t="s" r="B57" s="7">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -2282,17 +2288,17 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" ht="25.5" customHeight="1">
@@ -2308,17 +2314,17 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>182</v>
+        <v>8</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
-        <v>83</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="24.75" customHeight="1">
@@ -2334,17 +2340,17 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>20</v>
+        <v>182</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
-        <v>35</v>
+        <v>85</v>
       </c>
     </row>
     <row r="60" ht="25.5" customHeight="1">
@@ -2366,11 +2372,11 @@
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="61" ht="24.75" customHeight="1">
@@ -2396,7 +2402,7 @@
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -2418,7 +2424,7 @@
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
@@ -2438,17 +2444,17 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M63" s="9"/>
       <c t="s" r="N63" s="7">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" ht="24.75" customHeight="1">
@@ -2456,7 +2462,7 @@
         <v>61</v>
       </c>
       <c t="s" r="B64" s="7">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -2464,17 +2470,17 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M64" s="9"/>
       <c t="s" r="N64" s="7">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="25.5" customHeight="1">
@@ -2490,13 +2496,13 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="M65" s="9"/>
       <c t="s" r="N65" s="7">
@@ -2508,7 +2514,7 @@
         <v>63</v>
       </c>
       <c t="s" r="B66" s="7">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
@@ -2516,17 +2522,17 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="M66" s="9"/>
       <c t="s" r="N66" s="7">
-        <v>89</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -2542,17 +2548,17 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M67" s="9"/>
       <c t="s" r="N67" s="7">
-        <v>9</v>
+        <v>91</v>
       </c>
     </row>
     <row r="68" ht="25.5" customHeight="1">
@@ -2560,7 +2566,7 @@
         <v>65</v>
       </c>
       <c t="s" r="B68" s="7">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
@@ -2568,51 +2574,77 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="M68" s="9"/>
       <c t="s" r="N68" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="69" ht="25.5" customHeight="1">
-      <c r="K69" s="10">
-        <v>5147.8299999999999</v>
-      </c>
-      <c r="L69" s="10"/>
-      <c r="M69" s="10"/>
-      <c r="N69" s="10"/>
-    </row>
-    <row r="70" ht="16.5" customHeight="1">
-      <c t="s" r="A70" s="11">
+    <row r="69" ht="24.75" customHeight="1">
+      <c r="A69" s="6">
+        <v>66</v>
+      </c>
+      <c t="s" r="B69" s="7">
         <v>101</v>
       </c>
-      <c r="B70" s="11"/>
-      <c r="C70" s="11"/>
-      <c r="D70" s="11"/>
-      <c r="E70" s="11"/>
-      <c t="s" r="F70" s="12">
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c t="s" r="H69" s="8">
         <v>102</v>
       </c>
-      <c r="G70" s="12"/>
-      <c r="H70" s="13"/>
-      <c t="s" r="I70" s="14">
+      <c r="I69" s="8"/>
+      <c r="J69" s="8"/>
+      <c r="K69" s="8"/>
+      <c r="L69" s="9">
+        <v>45</v>
+      </c>
+      <c r="M69" s="9"/>
+      <c t="s" r="N69" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" ht="26.25" customHeight="1">
+      <c r="K70" s="10">
+        <v>5163.8299999999999</v>
+      </c>
+      <c r="L70" s="10"/>
+      <c r="M70" s="10"/>
+      <c r="N70" s="10"/>
+    </row>
+    <row r="71" ht="16.5" customHeight="1">
+      <c t="s" r="A71" s="11">
         <v>103</v>
       </c>
-      <c r="J70" s="14"/>
-      <c r="K70" s="14"/>
-      <c r="L70" s="14"/>
-      <c r="M70" s="14"/>
-      <c r="N70" s="14"/>
+      <c r="B71" s="11"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="11"/>
+      <c t="s" r="F71" s="12">
+        <v>104</v>
+      </c>
+      <c r="G71" s="12"/>
+      <c r="H71" s="13"/>
+      <c t="s" r="I71" s="14">
+        <v>105</v>
+      </c>
+      <c r="J71" s="14"/>
+      <c r="K71" s="14"/>
+      <c r="L71" s="14"/>
+      <c r="M71" s="14"/>
+      <c r="N71" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="206">
+  <mergeCells count="209">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -2815,10 +2847,13 @@
     <mergeCell ref="B68:G68"/>
     <mergeCell ref="H68:K68"/>
     <mergeCell ref="L68:M68"/>
-    <mergeCell ref="K69:N69"/>
-    <mergeCell ref="A70:E70"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="I70:N70"/>
+    <mergeCell ref="B69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="K70:N70"/>
+    <mergeCell ref="A71:E71"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="I71:N71"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
